--- a/meta/16-10-2.xlsx
+++ b/meta/16-10-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
